--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/Spyder/FakeCFBRefBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D78EF72-570C-9C45-903E-E782B47B247D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,9 +57,6 @@
     <t>0-0</t>
   </si>
   <si>
-    <t>pm_me_cute_sloths#5223</t>
-  </si>
-  <si>
     <t>Dick Nutter</t>
   </si>
   <si>
@@ -84,12 +82,15 @@
   </si>
   <si>
     <t>Big 10</t>
+  </si>
+  <si>
+    <t>pm_me_cute_sloths_#5223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -145,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,10 +437,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -462,22 +466,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -485,25 +489,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/Spyder/FakeCFBRefBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D78EF72-570C-9C45-903E-E782B47B247D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89412C6F-D4CA-5944-B2C3-D79CED6338DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Team Nickname</t>
+  </si>
   <si>
     <t>Conference</t>
   </si>
@@ -36,6 +34,9 @@
     <t>Discord Name</t>
   </si>
   <si>
+    <t>Coach Name</t>
+  </si>
+  <si>
     <t>Offensive Playbook</t>
   </si>
   <si>
@@ -45,43 +46,28 @@
     <t>Overall Record</t>
   </si>
   <si>
-    <t>Coach Name</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
+    <t>Cyclones</t>
+  </si>
+  <si>
     <t>Big 12</t>
   </si>
   <si>
+    <t>Dick Nutter</t>
+  </si>
+  <si>
+    <t>flexbone</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
     <t>0-0</t>
   </si>
   <si>
-    <t>Dick Nutter</t>
-  </si>
-  <si>
-    <t>Flexbone</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Team Nickname</t>
-  </si>
-  <si>
-    <t>Cyclones</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Hawkeyes</t>
-  </si>
-  <si>
-    <t>Big 10</t>
+    <t>Minnesota</t>
   </si>
   <si>
     <t>pm_me_cute_sloths_#5223</t>
@@ -133,10 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +405,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +413,7 @@
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
@@ -437,54 +422,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -492,25 +477,25 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/Spyder/FakeCFBRefBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89412C6F-D4CA-5944-B2C3-D79CED6338DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F80082-DB2D-BF4E-A6BA-3F0135E54107}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Team Name</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>0-0</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
   </si>
   <si>
     <t>pm_me_cute_sloths_#5223</t>
@@ -402,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -469,32 +466,6 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1,98 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/Spyder/FakeCFBRefBot/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F80082-DB2D-BF4E-A6BA-3F0135E54107}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Team Nickname</t>
-  </si>
-  <si>
-    <t>Conference</t>
-  </si>
-  <si>
-    <t>Discord Name</t>
-  </si>
-  <si>
-    <t>Coach Name</t>
-  </si>
-  <si>
-    <t>Offensive Playbook</t>
-  </si>
-  <si>
-    <t>Defensive Playbook</t>
-  </si>
-  <si>
-    <t>Overall Record</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Cyclones</t>
-  </si>
-  <si>
-    <t>Big 12</t>
-  </si>
-  <si>
-    <t>Dick Nutter</t>
-  </si>
-  <si>
-    <t>flexbone</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>pm_me_cute_sloths_#5223</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,22 +59,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -398,75 +331,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col width="10.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="23.5" customWidth="1" min="4" max="4"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="17" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Team Nickname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Conference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Discord Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Coach Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Offensive Playbook</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Defensive Playbook</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Record</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iowa State</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cyclones</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Big 12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pm_me_cute_sloths_#5223</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Dick Nutter</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nebraskans</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The Wonderful Nebraska Coalition</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hobbes .T. Hero#4989</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Paris Riley</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phalluses</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Best City Committee</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>scumbagjoe11#2267</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phil E. Phanatic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stormin’ Mormons</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rocky Mountain Athletic Conference</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dukemarriot#7247</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LaCarpetron Dukemarriot</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Timber Creek</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OCPS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Primal Cookie#5023</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Primal Cookie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5-2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trojans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PAC 12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>stinkywreslter#7847</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Oliver Raymond</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Michigan State</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Big Ten</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Max#6067</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Max Wasson</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Leander</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lions</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16-5A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ncs53#5600</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Steve Gideon</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Omaha</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Settlers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CAAA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hornet7Gaming#8204</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hornet</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nebraska State</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Commies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The Wonderful Nebraska Coalition</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GarbageCan#2063</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vladimir Stalin</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
@@ -816,6 +816,48 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Owls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C-USA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HorribelSpelling#6152</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Michael Scarn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="14640" windowWidth="24900" xWindow="700" yWindow="1360"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -56,16 +56,84 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
@@ -344,14 +412,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="10.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.5" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="23.5" customWidth="1" min="4" max="4"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="16.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="17" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="13" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10.5"/>
+    <col customWidth="1" max="4" min="4" width="23.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="16.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="17"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -858,7 +926,217 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Virginia Tech</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hokies</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jakesnake42#4711</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Jake Johnson</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tigers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bro199999#0570</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5-2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Existing</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Football Squad</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DUKE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DukeTheDuke#5320</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Damien Anderson</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Trojans</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sun Belt Conference</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>stuart.ratliff#9298</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Coach Ratliff</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dukes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CAA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>door_nav#2953</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LeBarn James</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="14640" windowWidth="24900" xWindow="700" yWindow="1360"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -56,84 +56,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
 </styleSheet>
 </file>
 
@@ -404,22 +336,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10.83203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="14.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="10.5"/>
-    <col customWidth="1" max="4" min="4" width="23.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="16.6640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="17"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="13"/>
+    <col width="10.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="23.5" customWidth="1" min="4" max="4"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="17" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1136,7 +1068,92 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Norfolk State</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Norfolk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MAAC</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MichaelLum30#5030</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Washed Walrus III</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gushbaba</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gushbabenbabens</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The Wonderful Nebraska Coalition</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pizza Chef
+#2639</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gushbab</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="14640" windowWidth="24900" xWindow="700" yWindow="1360"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -56,16 +56,84 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
@@ -344,14 +412,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col width="10.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.5" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="23.5" customWidth="1" min="4" max="4"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="16.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="17" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="13" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10.5"/>
+    <col customWidth="1" max="4" min="4" width="23.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="16.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="17"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -441,32 +509,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nebraskans</t>
+          <t>Phalluses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>Best City Committee</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hobbes .T. Hero#4989</t>
+          <t>scumbagjoe11#2267</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paris Riley</t>
+          <t>Phil E. Phanatic</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -483,32 +551,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phalluses</t>
+          <t>Stormin’ Mormons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Best City Committee</t>
+          <t>Rocky Mountain Athletic Conference</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>scumbagjoe11#2267</t>
+          <t>Dukemarriot#7247</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phil E. Phanatic</t>
+          <t>LaCarpetron Dukemarriot</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -525,37 +593,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Timber Creek</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stormin’ Mormons</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rocky Mountain Athletic Conference</t>
+          <t>OCPS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dukemarriot#7247</t>
+          <t>Primal Cookie#5023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LaCarpetron Dukemarriot</t>
+          <t>Primal Cookie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -567,37 +635,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Timber Creek</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Trojans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OCPS</t>
+          <t>PAC 12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Primal Cookie#5023</t>
+          <t>stinkywreslter#7847</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Primal Cookie</t>
+          <t>Oliver Raymond</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -609,32 +677,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Michigan State</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trojans</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAC 12</t>
+          <t>Big Ten</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>stinkywreslter#7847</t>
+          <t>Max#6067</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oliver Raymond</t>
+          <t>Max Wasson</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -651,37 +719,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Michigan State</t>
+          <t>Leander</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Lions</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Big Ten</t>
+          <t>16-5A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Max#6067</t>
+          <t>ncs53#5600</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Max Wasson</t>
+          <t>Steve Gideon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -693,37 +761,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Leander</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lions</t>
+          <t>Settlers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16-5A</t>
+          <t>CAAA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ncs53#5600</t>
+          <t>Hornet7Gaming#8204</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Steve Gideon</t>
+          <t>Hornet</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -735,27 +803,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Nebraska State</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Settlers</t>
+          <t>Commies</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAAA</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hornet7Gaming#8204</t>
+          <t>GarbageCan#2063</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hornet</t>
+          <t>Vladimir Stalin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -765,7 +833,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -777,32 +845,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nebraska State</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Commies</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>C-USA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GarbageCan#2063</t>
+          <t>HorribelSpelling#6152</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vladimir Stalin</t>
+          <t>Michael Scarn</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -819,27 +887,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Virginia Tech</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>Hokies</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C-USA</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HorribelSpelling#6152</t>
+          <t>Jakesnake42#4711</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Michael Scarn</t>
+          <t>Jake Johnson</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -861,37 +929,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hokies</t>
+          <t>Tigers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jakesnake42#4711</t>
+          <t>Bro199999#0570</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jake Johnson</t>
+          <t>Chatty</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -903,37 +971,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Existing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tigers</t>
+          <t>Football Squad</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>DUKE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bro199999#0570</t>
+          <t>DukeTheDuke#5320</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chatty</t>
+          <t>Damien Anderson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -945,37 +1013,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Existing</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Football Squad</t>
+          <t>Trojans</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DUKE</t>
+          <t>Sun Belt Conference</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DukeTheDuke#5320</t>
+          <t>stuart.ratliff#9298</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Damien Anderson</t>
+          <t>Coach Ratliff</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -987,27 +1055,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>James Madison</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Trojans</t>
+          <t>Dukes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sun Belt Conference</t>
+          <t>CAA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>stuart.ratliff#9298</t>
+          <t>door_nav#2953</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Coach Ratliff</t>
+          <t>LeBarn James</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1017,7 +1085,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1029,37 +1097,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>James Madison</t>
+          <t>Norfolk State</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dukes</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CAA</t>
+          <t>MAAC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>door_nav#2953</t>
+          <t>MichaelLum30#5030</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LeBarn James</t>
+          <t>Washed Walrus III</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1071,32 +1139,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Norfolk State</t>
+          <t>Gushbaba</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Gushbabenbabens</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAAC</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MichaelLum30#5030</t>
+          <t>Pizza Chef
+#2639</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Washed Walrus III</t>
+          <t>Gushbab</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1113,47 +1182,256 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gushbaba</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gushbabenbabens</t>
+          <t>Hoyas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>MAAC</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NotAName#0591</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nota Nam</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>west coast</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>South East North Western Wyoming A&amp;M Tech State</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Country Girls That Make Do</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ECFL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PleaseEndMeNow#3186</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Brett Hundley</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nebraskans</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Pizza Chef
-#2639</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Gushbab</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hobbes .T. Hero#4989</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Paris Riley</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>air raid</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>4-3</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cool Guys</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>jakeysnakey#6969</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jakob</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5-2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Milk University</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Milkmen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Milk 12</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Naki#2555</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tony "The Milkman" Stevens</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Footballers</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Floridan Football Fantasy</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JVitt#8369</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>JVitt</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -404,13 +404,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="10.83203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="14.1640625"/>
@@ -1431,6 +1431,48 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cudahy</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chuds</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The Resistance</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>penguino#2114</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pingu</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5-2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
@@ -1473,6 +1473,90 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>North Atlanta</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hornets</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C-USA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Starboy#1512</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Jeff Hollins</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>west coast</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mommy’s</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Milkies</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JUG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>lancer52#4833</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dick Sux</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>flexbone</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5-2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -410,7 +410,7 @@
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="10.83203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="14.1640625"/>
@@ -635,32 +635,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Michigan State</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trojans</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAC 12</t>
+          <t>Big Ten</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>stinkywreslter#7847</t>
+          <t>Max#6067</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oliver Raymond</t>
+          <t>Max Wasson</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -677,37 +677,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Michigan State</t>
+          <t>Leander</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Lions</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Big Ten</t>
+          <t>16-5A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Max#6067</t>
+          <t>ncs53#5600</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Max Wasson</t>
+          <t>Steve Gideon</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -719,37 +719,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leander</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lions</t>
+          <t>Settlers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16-5A</t>
+          <t>CAAA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ncs53#5600</t>
+          <t>Hornet7Gaming#8204</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Steve Gideon</t>
+          <t>Hornet</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -761,27 +761,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Nebraska State</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Settlers</t>
+          <t>Commies</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CAAA</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hornet7Gaming#8204</t>
+          <t>GarbageCan#2063</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hornet</t>
+          <t>Vladimir Stalin</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -803,32 +803,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nebraska State</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Commies</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>C-USA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GarbageCan#2063</t>
+          <t>HorribelSpelling#6152</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vladimir Stalin</t>
+          <t>Michael Scarn</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -845,27 +845,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Virginia Tech</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>Hokies</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C-USA</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HorribelSpelling#6152</t>
+          <t>Jakesnake42#4711</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Michael Scarn</t>
+          <t>Jake Johnson</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -887,37 +887,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hokies</t>
+          <t>Tigers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jakesnake42#4711</t>
+          <t>Bro199999#0570</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jake Johnson</t>
+          <t>Chatty</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -929,37 +929,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Existing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tigers</t>
+          <t>Football Squad</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>DUKE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bro199999#0570</t>
+          <t>DukeTheDuke#5320</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chatty</t>
+          <t>Damien Anderson</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -971,37 +971,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Existing</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Football Squad</t>
+          <t>Trojans</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DUKE</t>
+          <t>Sun Belt Conference</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DukeTheDuke#5320</t>
+          <t>stuart.ratliff#9298</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Damien Anderson</t>
+          <t>Coach Ratliff</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1013,27 +1013,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>James Madison</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Trojans</t>
+          <t>Dukes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sun Belt Conference</t>
+          <t>CAA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>stuart.ratliff#9298</t>
+          <t>door_nav#2953</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Coach Ratliff</t>
+          <t>LeBarn James</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1055,37 +1055,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>James Madison</t>
+          <t>Norfolk State</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dukes</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CAA</t>
+          <t>MAAC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>door_nav#2953</t>
+          <t>MichaelLum30#5030</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LeBarn James</t>
+          <t>Washed Walrus III</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1097,32 +1097,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norfolk State</t>
+          <t>Gushbaba</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Gushbabenbabens</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAAC</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MichaelLum30#5030</t>
+          <t>Pizza Chef
+#2639</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Washed Walrus III</t>
+          <t>Gushbab</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1139,33 +1140,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gushbaba</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gushbabenbabens</t>
+          <t>Hoyas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>MAAC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pizza Chef
-#2639</t>
+          <t>NotAName#0591</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gushbab</t>
+          <t>Nota Nam</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>west coast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1182,32 +1182,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>South East North Western Wyoming A&amp;M Tech State</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hoyas</t>
+          <t>Country Girls That Make Do</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAAC</t>
+          <t>ECFL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NotAName#0591</t>
+          <t>PleaseEndMeNow#3186</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nota Nam</t>
+          <t>Brett Hundley</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>west coast</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1224,32 +1224,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>South East North Western Wyoming A&amp;M Tech State</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Country Girls That Make Do</t>
+          <t>Nebraskans</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ECFL</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PleaseEndMeNow#3186</t>
+          <t>Hobbes .T. Hero#4989</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brett Hundley</t>
+          <t>Paris Riley</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1266,27 +1266,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nebraskans</t>
+          <t>Cool Guys</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hobbes .T. Hero#4989</t>
+          <t>jakeysnakey#6969</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Paris Riley</t>
+          <t>Jakob</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1308,37 +1308,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Milk University</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cool Guys</t>
+          <t>Milkmen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>Milk 12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jakeysnakey#6969</t>
+          <t>Naki#2555</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jakob</t>
+          <t>Tony "The Milkman" Stevens</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1350,32 +1350,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Milk University</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Milkmen</t>
+          <t>Footballers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Milk 12</t>
+          <t>Floridan Football Fantasy</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Naki#2555</t>
+          <t>JVitt#8369</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tony "The Milkman" Stevens</t>
+          <t>JVitt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1392,27 +1392,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Cudahy</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Footballers</t>
+          <t>Chuds</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Floridan Football Fantasy</t>
+          <t>The Resistance</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>JVitt#8369</t>
+          <t>penguino#2114</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>JVitt</t>
+          <t>Pingu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1434,37 +1434,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cudahy</t>
+          <t>North Atlanta</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chuds</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The Resistance</t>
+          <t>C-USA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>penguino#2114</t>
+          <t>Starboy#1512</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pingu</t>
+          <t>Jeff Hollins</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>west coast</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1476,37 +1476,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>North Atlanta</t>
+          <t>Mommy’s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Milkies</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C-USA</t>
+          <t>JUG</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Starboy#1512</t>
+          <t>lancer52#4833</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jeff Hollins</t>
+          <t>Dick Sux</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>west coast</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1518,37 +1518,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mommy’s</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Milkies</t>
+          <t>Trojans</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JUG</t>
+          <t>PAC 12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>lancer52#4833</t>
+          <t>stinkywrestler#7847</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dick Sux</t>
+          <t>Oliver Raymond</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -1097,33 +1097,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gushbaba</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gushbabenbabens</t>
+          <t>Hoyas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>MAAC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pizza Chef
-#2639</t>
+          <t>NotAName#0591</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gushbab</t>
+          <t>Nota Nam</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>west coast</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1140,32 +1139,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>South East North Western Wyoming A&amp;M Tech State</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hoyas</t>
+          <t>Country Girls That Make Do</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAAC</t>
+          <t>ECFL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NotAName#0591</t>
+          <t>PleaseEndMeNow#3186</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nota Nam</t>
+          <t>Brett Hundley</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>west coast</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1182,32 +1181,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>South East North Western Wyoming A&amp;M Tech State</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Country Girls That Make Do</t>
+          <t>Nebraskans</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ECFL</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PleaseEndMeNow#3186</t>
+          <t>Hobbes .T. Hero#4989</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brett Hundley</t>
+          <t>Paris Riley</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1224,27 +1223,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nebraskans</t>
+          <t>Cool Guys</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The Wonderful Nebraska Coalition</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hobbes .T. Hero#4989</t>
+          <t>jakeysnakey#6969</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paris Riley</t>
+          <t>Jakob</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1254,7 +1253,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1266,37 +1265,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Milk University</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cool Guys</t>
+          <t>Milkmen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>Milk 12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jakeysnakey#6969</t>
+          <t>Naki#2555</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jakob</t>
+          <t>Tony "The Milkman" Stevens</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1308,32 +1307,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Milk University</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Milkmen</t>
+          <t>Footballers</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Milk 12</t>
+          <t>Floridan Football Fantasy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Naki#2555</t>
+          <t>JVitt#8369</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tony "The Milkman" Stevens</t>
+          <t>JVitt</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1350,27 +1349,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Cudahy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Footballers</t>
+          <t>Chuds</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Floridan Football Fantasy</t>
+          <t>The Resistance</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JVitt#8369</t>
+          <t>penguino#2114</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>JVitt</t>
+          <t>Pingu</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1380,7 +1379,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1392,37 +1391,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cudahy</t>
+          <t>North Atlanta</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chuds</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The Resistance</t>
+          <t>C-USA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>penguino#2114</t>
+          <t>Starboy#1512</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pingu</t>
+          <t>Jeff Hollins</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>air raid</t>
+          <t>west coast</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1434,37 +1433,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>North Atlanta</t>
+          <t>Mommy’s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Milkies</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C-USA</t>
+          <t>JUG</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Starboy#1512</t>
+          <t>lancer52#4833</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jeff Hollins</t>
+          <t>Dick Sux</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>west coast</t>
+          <t>flexbone</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1476,37 +1475,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mommy’s</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Milkies</t>
+          <t>Trojans</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JUG</t>
+          <t>PAC 12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>lancer52#4833</t>
+          <t>stinkywrestler#7847</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dick Sux</t>
+          <t>Oliver Raymond</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>flexbone</t>
+          <t>spread</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1518,32 +1517,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Gushbaba</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Trojans</t>
+          <t>Gushbabenbabens</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PAC 12</t>
+          <t>The Wonderful Nebraska Coalition</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>stinkywrestler#7847</t>
+          <t>Pizza Chef#2639</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Oliver Raymond</t>
+          <t>Gushbab</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>air raid</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -404,13 +404,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="10.83203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="14.1640625"/>
@@ -1556,6 +1556,48 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Springfield</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Springs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>free conference</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Turts#3627</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hunter Scott</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>air raid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/user_database.xlsx
+++ b/user_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/FCFB-Ref-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E379CFE7-E4EB-294E-9451-0F4270374348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028AD0D-7D1D-5144-A235-548E8FB11904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1360" windowWidth="24900" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,9 +322,6 @@
     <t>ECFL</t>
   </si>
   <si>
-    <t>PleaseEndMeNow#3186</t>
-  </si>
-  <si>
     <t>Brett Hundley</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>Hunter Scott</t>
+  </si>
+  <si>
+    <t>Buttersqauch#3186</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,10 +1263,10 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
       </c>
       <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
         <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -1306,19 +1306,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
       </c>
       <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>112</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1358,19 +1358,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>117</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -1384,19 +1384,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>121</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>122</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
       </c>
       <c r="F23" t="s">
         <v>43</v>
@@ -1410,19 +1410,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
         <v>125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
       </c>
       <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
         <v>127</v>
-      </c>
-      <c r="E24" t="s">
-        <v>128</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
@@ -1436,19 +1436,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
         <v>129</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>130</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>131</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1462,19 +1462,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
       </c>
       <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
@@ -1488,19 +1488,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
         <v>138</v>
-      </c>
-      <c r="B27" t="s">
-        <v>139</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
         <v>140</v>
-      </c>
-      <c r="E27" t="s">
-        <v>141</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -1514,19 +1514,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
         <v>142</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>144</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>145</v>
-      </c>
-      <c r="E28" t="s">
-        <v>146</v>
       </c>
       <c r="F28" t="s">
         <v>43</v>
